--- a/VariabelBebas.xlsx
+++ b/VariabelBebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6AFBF7-40E0-4408-A279-3432E3113303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0ED021-B804-4D85-A43C-86435F6BECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="16200" xr2:uid="{12D26577-E8E2-430C-BDF7-3BBF8B180739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{12D26577-E8E2-430C-BDF7-3BBF8B180739}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>X1(Jumlah Penduduk)</t>
   </si>
@@ -123,19 +123,16 @@
     <t>X4(Akses Air Minum Layak)</t>
   </si>
   <si>
-    <t>X5(tenaga Kesehatan)</t>
-  </si>
-  <si>
-    <t>X6(Indeks Kesehatan)</t>
-  </si>
-  <si>
-    <t>X7(Usia Harapan Hidup)</t>
-  </si>
-  <si>
-    <t>X8(Pengeluaran Perkapita)</t>
-  </si>
-  <si>
-    <t>X9(Ketersediaan Transportasi/Unit)</t>
+    <t>X5(Indeks Kesehatan)</t>
+  </si>
+  <si>
+    <t>X6(Usia Harapan Hidup)</t>
+  </si>
+  <si>
+    <t>X7(Pengeluaran Perkapita)</t>
+  </si>
+  <si>
+    <t>X8(Ketersediaan Transportasi/Unit)</t>
   </si>
 </sst>
 </file>
@@ -523,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97678DC9-7864-4491-B2BA-4FE5E6A59CFA}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24:X25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,11 +531,10 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -569,9 +565,7 @@
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -600,16 +594,16 @@
       <c r="E2" s="3">
         <v>0.95730000000000004</v>
       </c>
+      <c r="F2" s="2">
+        <v>83.09</v>
+      </c>
       <c r="G2" s="2">
-        <v>83.09</v>
-      </c>
-      <c r="H2" s="2">
         <v>74.27</v>
       </c>
+      <c r="H2">
+        <v>11018000</v>
+      </c>
       <c r="I2">
-        <v>11018000</v>
-      </c>
-      <c r="J2">
         <v>3079</v>
       </c>
     </row>
@@ -629,16 +623,16 @@
       <c r="E3" s="3">
         <v>0.92269999999999996</v>
       </c>
+      <c r="F3" s="2">
+        <v>81.22</v>
+      </c>
       <c r="G3" s="2">
-        <v>81.22</v>
-      </c>
-      <c r="H3" s="2">
         <v>73.099999999999994</v>
       </c>
+      <c r="H3">
+        <v>9392000</v>
+      </c>
       <c r="I3">
-        <v>9392000</v>
-      </c>
-      <c r="J3">
         <v>600</v>
       </c>
     </row>
@@ -658,16 +652,16 @@
       <c r="E4" s="3">
         <v>0.96950000000000003</v>
       </c>
+      <c r="F4" s="2">
+        <v>83.14</v>
+      </c>
       <c r="G4" s="2">
-        <v>83.14</v>
-      </c>
-      <c r="H4" s="2">
         <v>74.3</v>
       </c>
+      <c r="H4">
+        <v>12123000</v>
+      </c>
       <c r="I4">
-        <v>12123000</v>
-      </c>
-      <c r="J4">
         <v>1596</v>
       </c>
     </row>
@@ -687,16 +681,16 @@
       <c r="E5" s="3">
         <v>0.91900000000000004</v>
       </c>
+      <c r="F5" s="2">
+        <v>79.459999999999994</v>
+      </c>
       <c r="G5" s="2">
-        <v>79.459999999999994</v>
-      </c>
-      <c r="H5" s="2">
         <v>71.92</v>
       </c>
+      <c r="H5">
+        <v>11153000</v>
+      </c>
       <c r="I5">
-        <v>11153000</v>
-      </c>
-      <c r="J5">
         <v>7230</v>
       </c>
     </row>
@@ -716,16 +710,16 @@
       <c r="E6" s="3">
         <v>0.94389999999999996</v>
       </c>
+      <c r="F6" s="2">
+        <v>80.459999999999994</v>
+      </c>
       <c r="G6" s="2">
-        <v>80.459999999999994</v>
-      </c>
-      <c r="H6" s="2">
         <v>72.569999999999993</v>
       </c>
+      <c r="H6">
+        <v>9750000</v>
+      </c>
       <c r="I6">
-        <v>9750000</v>
-      </c>
-      <c r="J6">
         <v>643</v>
       </c>
     </row>
@@ -745,16 +739,16 @@
       <c r="E7" s="3">
         <v>0.85650000000000004</v>
       </c>
+      <c r="F7" s="2">
+        <v>77.819999999999993</v>
+      </c>
       <c r="G7" s="2">
-        <v>77.819999999999993</v>
-      </c>
-      <c r="H7" s="2">
         <v>70.790000000000006</v>
       </c>
+      <c r="H7">
+        <v>8626000</v>
+      </c>
       <c r="I7">
-        <v>8626000</v>
-      </c>
-      <c r="J7">
         <v>4183</v>
       </c>
     </row>
@@ -774,16 +768,16 @@
       <c r="E8" s="3">
         <v>0.98519999999999996</v>
       </c>
+      <c r="F8" s="2">
+        <v>80.72</v>
+      </c>
       <c r="G8" s="2">
-        <v>80.72</v>
-      </c>
-      <c r="H8" s="2">
         <v>72.760000000000005</v>
       </c>
+      <c r="H8">
+        <v>11128000</v>
+      </c>
       <c r="I8">
-        <v>11128000</v>
-      </c>
-      <c r="J8">
         <v>352</v>
       </c>
     </row>
@@ -803,16 +797,16 @@
       <c r="E9" s="3">
         <v>0.81129999999999991</v>
       </c>
+      <c r="F9" s="2">
+        <v>79.77</v>
+      </c>
       <c r="G9" s="2">
-        <v>79.77</v>
-      </c>
-      <c r="H9" s="2">
         <v>72.069999999999993</v>
       </c>
+      <c r="H9">
+        <v>8685000</v>
+      </c>
       <c r="I9">
-        <v>8685000</v>
-      </c>
-      <c r="J9">
         <v>2114</v>
       </c>
     </row>
@@ -832,16 +826,16 @@
       <c r="E10" s="3">
         <v>0.97770000000000001</v>
       </c>
+      <c r="F10" s="2">
+        <v>80.23</v>
+      </c>
       <c r="G10" s="2">
-        <v>80.23</v>
-      </c>
-      <c r="H10" s="2">
         <v>72.459999999999994</v>
       </c>
+      <c r="H10">
+        <v>10580000</v>
+      </c>
       <c r="I10">
-        <v>10580000</v>
-      </c>
-      <c r="J10">
         <v>538</v>
       </c>
     </row>
@@ -861,16 +855,16 @@
       <c r="E11" s="3">
         <v>0.98109999999999997</v>
       </c>
+      <c r="F11" s="2">
+        <v>80.95</v>
+      </c>
       <c r="G11" s="2">
-        <v>80.95</v>
-      </c>
-      <c r="H11" s="2">
         <v>72.900000000000006</v>
       </c>
+      <c r="H11">
+        <v>12392000</v>
+      </c>
       <c r="I11">
-        <v>12392000</v>
-      </c>
-      <c r="J11">
         <v>1066</v>
       </c>
     </row>
@@ -890,16 +884,16 @@
       <c r="E12" s="3">
         <v>0.97670000000000001</v>
       </c>
+      <c r="F12" s="2">
+        <v>84.23</v>
+      </c>
       <c r="G12" s="2">
-        <v>84.23</v>
-      </c>
-      <c r="H12" s="2">
         <v>75.040000000000006</v>
       </c>
+      <c r="H12">
+        <v>18236000</v>
+      </c>
       <c r="I12">
-        <v>18236000</v>
-      </c>
-      <c r="J12">
         <v>739</v>
       </c>
     </row>
@@ -919,16 +913,16 @@
       <c r="E13" s="3">
         <v>0.94340000000000002</v>
       </c>
+      <c r="F13" s="2">
+        <v>79.22</v>
+      </c>
       <c r="G13" s="2">
-        <v>79.22</v>
-      </c>
-      <c r="H13" s="2">
         <v>71.8</v>
       </c>
+      <c r="H13">
+        <v>11356000</v>
+      </c>
       <c r="I13">
-        <v>11356000</v>
-      </c>
-      <c r="J13">
         <v>1149</v>
       </c>
     </row>
@@ -948,16 +942,16 @@
       <c r="E14" s="3">
         <v>0.98769999999999991</v>
       </c>
+      <c r="F14" s="2">
+        <v>85.35</v>
+      </c>
       <c r="G14" s="2">
-        <v>85.35</v>
-      </c>
-      <c r="H14" s="2">
         <v>75.790000000000006</v>
       </c>
+      <c r="H14">
+        <v>16479000</v>
+      </c>
       <c r="I14">
-        <v>16479000</v>
-      </c>
-      <c r="J14">
         <v>50</v>
       </c>
     </row>
@@ -977,16 +971,16 @@
       <c r="E15" s="3">
         <v>0.99609999999999999</v>
       </c>
+      <c r="F15" s="2">
+        <v>83.28</v>
+      </c>
       <c r="G15" s="2">
-        <v>83.28</v>
-      </c>
-      <c r="H15" s="2">
         <v>74.45</v>
       </c>
+      <c r="H15">
+        <v>12656000</v>
+      </c>
       <c r="I15">
-        <v>12656000</v>
-      </c>
-      <c r="J15">
         <v>1398</v>
       </c>
     </row>
@@ -1006,20 +1000,20 @@
       <c r="E16" s="3">
         <v>0.97360000000000002</v>
       </c>
+      <c r="F16" s="2">
+        <v>83.85</v>
+      </c>
       <c r="G16" s="2">
-        <v>83.85</v>
-      </c>
-      <c r="H16" s="2">
         <v>74.8</v>
       </c>
+      <c r="H16">
+        <v>12883000</v>
+      </c>
       <c r="I16">
-        <v>12883000</v>
-      </c>
-      <c r="J16">
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1035,20 +1029,20 @@
       <c r="E17" s="3">
         <v>0.99569999999999992</v>
       </c>
+      <c r="F17" s="2">
+        <v>81.14</v>
+      </c>
       <c r="G17" s="2">
-        <v>81.14</v>
-      </c>
-      <c r="H17" s="2">
         <v>73.08</v>
       </c>
+      <c r="H17">
+        <v>12506000</v>
+      </c>
       <c r="I17">
-        <v>12506000</v>
-      </c>
-      <c r="J17">
         <v>32552</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1064,20 +1058,20 @@
       <c r="E18" s="3">
         <v>0.99560000000000004</v>
       </c>
+      <c r="F18" s="2">
+        <v>84.49</v>
+      </c>
       <c r="G18" s="2">
-        <v>84.49</v>
-      </c>
-      <c r="H18" s="2">
         <v>75.23</v>
       </c>
+      <c r="H18">
+        <v>16279000</v>
+      </c>
       <c r="I18">
-        <v>16279000</v>
-      </c>
-      <c r="J18">
         <v>3279</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1093,20 +1087,20 @@
       <c r="E19" s="3">
         <v>0.98739999999999994</v>
       </c>
+      <c r="F19" s="2">
+        <v>81.31</v>
+      </c>
       <c r="G19" s="2">
-        <v>81.31</v>
-      </c>
-      <c r="H19" s="2">
         <v>73.11</v>
       </c>
+      <c r="H19">
+        <v>11799000</v>
+      </c>
       <c r="I19">
-        <v>11799000</v>
-      </c>
-      <c r="J19">
         <v>481</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1122,20 +1116,20 @@
       <c r="E20" s="3">
         <v>0.95840000000000003</v>
       </c>
+      <c r="F20" s="2">
+        <v>80.97</v>
+      </c>
       <c r="G20" s="2">
-        <v>80.97</v>
-      </c>
-      <c r="H20" s="2">
         <v>72.92</v>
       </c>
+      <c r="H20">
+        <v>11063000</v>
+      </c>
       <c r="I20">
-        <v>11063000</v>
-      </c>
-      <c r="J20">
         <v>2671</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1151,20 +1145,20 @@
       <c r="E21" s="3">
         <v>0.96569999999999989</v>
       </c>
+      <c r="F21" s="2">
+        <v>83.12</v>
+      </c>
       <c r="G21" s="2">
-        <v>83.12</v>
-      </c>
-      <c r="H21" s="2">
         <v>74.290000000000006</v>
       </c>
+      <c r="H21">
+        <v>10011000</v>
+      </c>
       <c r="I21">
-        <v>10011000</v>
-      </c>
-      <c r="J21">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1180,20 +1174,20 @@
       <c r="E22" s="3">
         <v>0.93379999999999996</v>
       </c>
+      <c r="F22" s="2">
+        <v>78.09</v>
+      </c>
       <c r="G22" s="2">
-        <v>78.09</v>
-      </c>
-      <c r="H22" s="2">
         <v>71.05</v>
       </c>
+      <c r="H22">
+        <v>10340000</v>
+      </c>
       <c r="I22">
-        <v>10340000</v>
-      </c>
-      <c r="J22">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1209,20 +1203,20 @@
       <c r="E23" s="3">
         <v>0.82950000000000002</v>
       </c>
+      <c r="F23" s="2">
+        <v>79.83</v>
+      </c>
       <c r="G23" s="2">
-        <v>79.83</v>
-      </c>
-      <c r="H23" s="2">
         <v>72.17</v>
       </c>
+      <c r="H23">
+        <v>9406000</v>
+      </c>
       <c r="I23">
-        <v>9406000</v>
-      </c>
-      <c r="J23">
         <v>3161</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1238,20 +1232,20 @@
       <c r="E24" s="3">
         <v>0.85400000000000009</v>
       </c>
+      <c r="F24" s="2">
+        <v>79.180000000000007</v>
+      </c>
       <c r="G24" s="2">
-        <v>79.180000000000007</v>
-      </c>
-      <c r="H24" s="2">
         <v>71.739999999999995</v>
       </c>
+      <c r="H24">
+        <v>12619000</v>
+      </c>
       <c r="I24">
-        <v>12619000</v>
-      </c>
-      <c r="J24">
         <v>701</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1267,20 +1261,20 @@
       <c r="E25" s="3">
         <v>0.99219999999999997</v>
       </c>
+      <c r="F25" s="2">
+        <v>81.42</v>
+      </c>
       <c r="G25" s="2">
-        <v>81.42</v>
-      </c>
-      <c r="H25" s="2">
         <v>73.239999999999995</v>
       </c>
+      <c r="H25">
+        <v>11537000</v>
+      </c>
       <c r="I25">
-        <v>11537000</v>
-      </c>
-      <c r="J25">
         <v>548</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1296,20 +1290,20 @@
       <c r="E26" s="3">
         <v>0.85719999999999996</v>
       </c>
+      <c r="F26" s="2">
+        <v>79.290000000000006</v>
+      </c>
       <c r="G26" s="2">
-        <v>79.290000000000006</v>
-      </c>
-      <c r="H26" s="2">
         <v>71.83</v>
       </c>
+      <c r="H26">
+        <v>9482000</v>
+      </c>
       <c r="I26">
-        <v>9482000</v>
-      </c>
-      <c r="J26">
         <v>3954</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1325,20 +1319,20 @@
       <c r="E27" s="3">
         <v>0.95420000000000005</v>
       </c>
+      <c r="F27" s="2">
+        <v>81.400000000000006</v>
+      </c>
       <c r="G27" s="2">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="H27" s="2">
         <v>73.19</v>
       </c>
+      <c r="H27">
+        <v>11136000</v>
+      </c>
       <c r="I27">
-        <v>11136000</v>
-      </c>
-      <c r="J27">
         <v>2092</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1354,21 +1348,21 @@
       <c r="E28" s="3">
         <v>0.89029999999999998</v>
       </c>
+      <c r="F28" s="2">
+        <v>76.849999999999994</v>
+      </c>
       <c r="G28" s="2">
-        <v>76.849999999999994</v>
-      </c>
-      <c r="H28" s="2">
         <v>70.19</v>
       </c>
+      <c r="H28">
+        <v>8562000</v>
+      </c>
       <c r="I28">
-        <v>8562000</v>
-      </c>
-      <c r="J28">
         <v>1002</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H29" s="2"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
